--- a/jupyter/analysis/week9/Single.xlsx
+++ b/jupyter/analysis/week9/Single.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lincolnzjx/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA6EDCB7-30A3-FC49-92C2-44AFA894EB60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85978CE9-F9F0-C049-803E-196D798FAEF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10400" yWindow="3300" windowWidth="27640" windowHeight="16940" xr2:uid="{385C4909-F520-B249-96A1-E67111AEB4F8}"/>
+    <workbookView xWindow="3600" yWindow="2300" windowWidth="27640" windowHeight="16940" xr2:uid="{385C4909-F520-B249-96A1-E67111AEB4F8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="950" sheetId="1" r:id="rId1"/>
+    <sheet name="Others" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>exp</t>
   </si>
@@ -79,13 +80,31 @@
   </si>
   <si>
     <t>x060381</t>
+  </si>
+  <si>
+    <t>class_index</t>
+  </si>
+  <si>
+    <t>x052550</t>
+  </si>
+  <si>
+    <t>x052551</t>
+  </si>
+  <si>
+    <t>x052552</t>
+  </si>
+  <si>
+    <t>x052553</t>
+  </si>
+  <si>
+    <t>x052516</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -93,13 +112,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -114,8 +145,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,15 +462,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{915F27D3-F6E1-1A4F-8228-86CFABF72159}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -448,8 +480,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -459,8 +494,11 @@
       <c r="C2">
         <v>47</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -470,8 +508,11 @@
       <c r="C3">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -481,8 +522,11 @@
       <c r="C4">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -492,8 +536,11 @@
       <c r="C5">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -503,8 +550,11 @@
       <c r="C6">
         <v>99</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -514,8 +564,11 @@
       <c r="C7">
         <v>75</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -525,10 +578,13 @@
       <c r="C8">
         <v>112</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B9">
         <v>15</v>
@@ -536,8 +592,11 @@
       <c r="C9">
         <v>148</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D9">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -547,8 +606,11 @@
       <c r="C10">
         <v>101</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D10">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -558,8 +620,11 @@
       <c r="C11">
         <v>398</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D11">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -569,8 +634,11 @@
       <c r="C12">
         <v>485</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D12">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -580,8 +648,11 @@
       <c r="C13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D13">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -591,8 +662,11 @@
       <c r="C14">
         <v>161</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D14">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -601,9 +675,98 @@
       </c>
       <c r="C15">
         <v>334</v>
+      </c>
+      <c r="D15">
+        <v>950</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7C33602-5113-0E4A-BD45-AEE74BF12CAC}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>47</v>
+      </c>
+      <c r="D2">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>47</v>
+      </c>
+      <c r="D3">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>47</v>
+      </c>
+      <c r="D4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>47</v>
+      </c>
+      <c r="D5">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>